--- a/templates/export/summary.xlsx
+++ b/templates/export/summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Автор</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -62,39 +62,18 @@
     <t>Report type:</t>
   </si>
   <si>
-    <t>Summary</t>
-  </si>
-  <si>
     <t>Period:</t>
   </si>
   <si>
     <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", from, locale, timezone)+" - "+dateTool.format("YYYY-MM-dd HH:mm:ss", to, locale, timezone)}</t>
   </si>
   <si>
-    <t>Device</t>
-  </si>
-  <si>
     <t>Distance</t>
   </si>
   <si>
-    <t>Start Odometer</t>
-  </si>
-  <si>
-    <t>End Odometer</t>
-  </si>
-  <si>
-    <t>Top speed</t>
-  </si>
-  <si>
-    <t>Average speed</t>
-  </si>
-  <si>
     <t>Engine Hours</t>
   </si>
   <si>
-    <t>Spent Fuel</t>
-  </si>
-  <si>
     <t>${summary.deviceName}</t>
   </si>
   <si>
@@ -117,12 +96,33 @@
   </si>
   <si>
     <t>${volumeUnit.equals("impGal") ? "".format("%.1f Imp. Gal", summary.spentFuel / 4.546) : volumeUnit.equals("usGal") ? "".format("%.1f U.S. Gal", summary.spentFuel / 3.785) : "".format("%.1f l", summary.spentFuel)}</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Start Odo</t>
+  </si>
+  <si>
+    <t>End Odo</t>
+  </si>
+  <si>
+    <t>Max speed</t>
+  </si>
+  <si>
+    <t>Aveg speed</t>
+  </si>
+  <si>
+    <t>Fuel Utilized</t>
+  </si>
+  <si>
+    <t>General Summary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]&quot; h &quot;m&quot; min&quot;"/>
   </numFmts>
@@ -202,12 +202,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -230,55 +230,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="8"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -288,18 +245,46 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="8"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -474,9 +459,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -514,7 +499,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -586,7 +571,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -738,130 +723,130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125"/>
-    <col min="2" max="2" width="20.42578125"/>
-    <col min="3" max="3" width="16.5703125"/>
-    <col min="4" max="9" width="16.28515625"/>
+    <col min="1" max="1" width="17.42578125" style="11"/>
+    <col min="2" max="2" width="20.42578125" style="11"/>
+    <col min="3" max="3" width="16.5703125" style="11"/>
+    <col min="4" max="9" width="16.28515625" style="11"/>
     <col min="10" max="28" width="8.7109375"/>
     <col min="29" max="1025" width="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="B2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="5"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="1:9" s="13" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="12" t="s">
+      <c r="I6" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="I7" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/templates/export/summary.xlsx
+++ b/templates/export/summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srihariayapilla/Documents/Office/traccar/templates/export/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sainathavadhuta/Documents/code/traccar/templates/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36D9DEC-F2BF-2A4E-9EC4-41F97189D1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09FDCC7-361F-F045-BE35-65C6D9CCDA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>jx:area(lastCell="G7")</t>
+          <t>jx:area(lastCell="K7")</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>jx:each(items="summaries", var="summary", lastCell="G7")</t>
+          <t>jx:each(items="summaries", var="summary", lastCell="K7")</t>
         </r>
       </text>
     </comment>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Report type:</t>
   </si>
@@ -111,6 +111,30 @@
   </si>
   <si>
     <t>${volumeUnit.equals("impGal") ? "".format("%.1f Imp. Gal", summary.spentFuel / 4.546) : volumeUnit.equals("usGal") ? "".format("%.1f U.S. Gal", summary.spentFuel / 3.785) : "".format("%.1f l", summary.spentFuel)}</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>${summary.groupName}</t>
+  </si>
+  <si>
+    <t>IMEI</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>SIM Number</t>
+  </si>
+  <si>
+    <t>${summary.imei}</t>
+  </si>
+  <si>
+    <t>${summary.model}</t>
+  </si>
+  <si>
+    <t>${summary.phone}</t>
   </si>
 </sst>
 </file>
@@ -685,6 +709,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBB3C1B5-1D91-5392-4890-63A524B3C148}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C761AC-5A52-1462-4076-B36BA81D7CD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -985,26 +1117,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="10" width="16.33203125" customWidth="1"/>
-    <col min="11" max="29" width="8.6640625" customWidth="1"/>
+    <col min="5" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" customWidth="1"/>
+    <col min="9" max="10" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="29" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1014,13 +1149,13 @@
       <c r="C2" s="6"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1031,7 +1166,7 @@
       <c r="E4" s="5"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1042,7 +1177,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
@@ -1062,8 +1197,20 @@
       <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>10</v>
       </c>
@@ -1082,6 +1229,18 @@
       </c>
       <c r="G7" s="14" t="s">
         <v>15</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/templates/export/summary.xlsx
+++ b/templates/export/summary.xlsx
@@ -112,7 +112,7 @@
     <t>${summary.groupName}</t>
   </si>
   <si>
-    <t>${summary.imei}</t>
+    <t>${summary.uniqueId}</t>
   </si>
   <si>
     <t>${summary.model}</t>
@@ -292,31 +292,31 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -331,7 +331,7 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -558,17 +558,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -595,10 +595,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -837,12 +837,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1119,7 +1119,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1146,10 +1146,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
